--- a/CaculosImportantes.xlsx
+++ b/CaculosImportantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A213E45-5743-49BB-926F-8F2AA5D5DE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86864701-79BF-46AF-AD53-F2266CF7CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE740F-1F08-47D4-9225-D9FAFF7C9E91}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Delay Timer</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Caract Frequ</t>
+  </si>
+  <si>
+    <t>Captura de Entrada</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DBA7C0-117E-4108-8737-4ED45A0F6E9C}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +742,11 @@
       <c r="B20">
         <f>2*B19/B18</f>
         <v>1.25E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/CaculosImportantes.xlsx
+++ b/CaculosImportantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86864701-79BF-46AF-AD53-F2266CF7CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB92BEA-6DB9-473A-BC37-68E27C1F9CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE740F-1F08-47D4-9225-D9FAFF7C9E91}"/>
   </bookViews>
@@ -37,46 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>Delay Timer</t>
-  </si>
-  <si>
-    <t>Prescaler</t>
-  </si>
-  <si>
-    <t>Clock PSC</t>
-  </si>
-  <si>
-    <t>Clock CNT</t>
-  </si>
-  <si>
-    <t>Update Event</t>
-  </si>
-  <si>
-    <t>Autorealod</t>
-  </si>
-  <si>
-    <t>Presc PSC</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>Counting Period</t>
-  </si>
-  <si>
-    <t>Update Event y Counting Period</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>Para conteos ascendentes y descendentes</t>
-  </si>
-  <si>
-    <t>Couting Period</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Menor a 84</t>
   </si>
@@ -124,6 +85,69 @@
   </si>
   <si>
     <t>Captura de Entrada</t>
+  </si>
+  <si>
+    <t>Configuración Timer</t>
+  </si>
+  <si>
+    <t>Mhz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Clock </t>
+  </si>
+  <si>
+    <t>F_clock_psc</t>
+  </si>
+  <si>
+    <t>Prescaler clock</t>
+  </si>
+  <si>
+    <t>Autorreload</t>
+  </si>
+  <si>
+    <t>El prescaler divide la frecuencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El autorreaload es el periodo </t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Tiempo_update</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>El clock se escoje</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Frecuencia del update</t>
+  </si>
+  <si>
+    <t>Periodo del update</t>
+  </si>
+  <si>
+    <t>Para la captura de entrada se debe tener en cuenta lo siguiente:</t>
+  </si>
+  <si>
+    <t>El prescaler se aumenta para medir frecuencias más bajas.</t>
   </si>
 </sst>
 </file>
@@ -139,12 +163,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -184,6 +226,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,16 +270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>101246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>29524</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -251,16 +314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>406035</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>77120</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377460</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>39020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -283,7 +346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5667375" y="4571999"/>
+          <a:off x="10572750" y="5295899"/>
           <a:ext cx="8045085" cy="4839621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -614,144 +677,145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DBA7C0-117E-4108-8737-4ED45A0F6E9C}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:C23"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="33.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>15999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>16000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>B5/(B4+1)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>16000000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <f>C5/(C6+1)</f>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <f>(2^32)-1</f>
+        <v>4294967295</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C7/(C8+1)</f>
+        <v>3.7252902984619141E-9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <f>(1/C9)/1000000</f>
+        <v>268.43545599999999</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <f>B10/((B11+1)*(B12+1))</f>
-        <v>500</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <f>(1/B13)*1000</f>
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>16000000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <f>2*B19/B18</f>
-        <v>1.25E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -773,15 +837,15 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>16</v>
@@ -791,76 +855,76 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <f>B2/B3</f>
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>168</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <f>B4*B5</f>
         <v>336</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <f>B6/B7</f>
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
     </row>

--- a/CaculosImportantes.xlsx
+++ b/CaculosImportantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB92BEA-6DB9-473A-BC37-68E27C1F9CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88150A-680E-4945-A88E-F0CE2D98FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE740F-1F08-47D4-9225-D9FAFF7C9E91}"/>
   </bookViews>
@@ -154,6 +154,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -247,6 +251,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,13 +693,13 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
     <col min="5" max="5" width="33.140625" style="5" customWidth="1"/>
   </cols>
@@ -700,7 +713,7 @@
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -714,7 +727,7 @@
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -728,8 +741,8 @@
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
+      <c r="C6" s="11">
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -742,9 +755,9 @@
       <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <f>C5/(C6+1)</f>
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -756,8 +769,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="11">
-        <f>(2^32)-1</f>
-        <v>4294967295</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -770,9 +782,9 @@
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <f>C7/(C8+1)</f>
-        <v>3.7252902984619141E-9</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -785,9 +797,9 @@
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="14">
         <f>(1/C9)/1000000</f>
-        <v>268.43545599999999</v>
+        <v>1E-4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>

--- a/CaculosImportantes.xlsx
+++ b/CaculosImportantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88150A-680E-4945-A88E-F0CE2D98FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CA783-A01D-4ABD-AFE8-ECBA708A73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE740F-1F08-47D4-9225-D9FAFF7C9E91}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Menor a 84</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Frecuencia del update</t>
-  </si>
-  <si>
     <t>Periodo del update</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>El prescaler se aumenta para medir frecuencias más bajas.</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>Frecuencia del update MHz</t>
+  </si>
+  <si>
+    <t>Frecuencia del update kHz</t>
   </si>
 </sst>
 </file>
@@ -329,13 +335,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>377460</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>39020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -690,10 +696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DBA7C0-117E-4108-8737-4ED45A0F6E9C}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +748,8 @@
         <v>20</v>
       </c>
       <c r="C6" s="11">
-        <v>99</v>
+        <f>16-1</f>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -757,7 +764,7 @@
       </c>
       <c r="C7" s="13">
         <f>C5/(C6+1)</f>
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -769,7 +776,8 @@
         <v>21</v>
       </c>
       <c r="C8" s="11">
-        <v>15</v>
+        <f>50-1</f>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -784,44 +792,59 @@
       </c>
       <c r="C9" s="13">
         <f>C7/(C8+1)</f>
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13">
+        <f>C9*1000</f>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <f>(1/C9)/1000000</f>
-        <v>1E-4</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/CaculosImportantes.xlsx
+++ b/CaculosImportantes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\STM32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CA783-A01D-4ABD-AFE8-ECBA708A73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BD287D-9147-4D0F-9E0B-CF354B335C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57BE740F-1F08-47D4-9225-D9FAFF7C9E91}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Menor a 84</t>
   </si>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">Internal Clock </t>
   </si>
   <si>
-    <t>F_clock_psc</t>
-  </si>
-  <si>
     <t>Prescaler clock</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>El prescaler divide la frecuencia</t>
   </si>
   <si>
-    <t xml:space="preserve">El autorreaload es el periodo </t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
@@ -154,6 +148,30 @@
   </si>
   <si>
     <t>Frecuencia del update kHz</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>Ticks us</t>
+  </si>
+  <si>
+    <t>Ticks ms</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Razón a la que aumenta el contador en ms</t>
+  </si>
+  <si>
+    <t>Razón a la que aumenta el contador en us</t>
+  </si>
+  <si>
+    <t>F_clock_after_psc</t>
+  </si>
+  <si>
+    <t>Ticks hasta terminar el conteo</t>
   </si>
 </sst>
 </file>
@@ -241,9 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -259,14 +274,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -291,13 +309,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>101246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -335,13 +353,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>377460</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>39020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -696,155 +714,188 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DBA7C0-117E-4108-8737-4ED45A0F6E9C}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="5" width="33.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10">
         <f>16-1</f>
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <f>1/(C5/(C6+1))</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10">
+        <f>(0.001)/(C5/(C6+1))</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11">
         <f>C5/(C6+1)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10">
         <f>50-1</f>
         <v>49</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11">
+        <f>C9/(C10+1)</f>
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="11">
+        <f>C11*1000</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="C13" s="12">
+        <f>(1/C11)/1000000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13">
-        <f>C7/(C8+1)</f>
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="13">
-        <f>C9*1000</f>
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="14">
-        <f>(1/C9)/1000000</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>35</v>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
